--- a/python/dados.xlsx
+++ b/python/dados.xlsx
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,33 +465,33 @@
     <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rita de Cássia Costa Barbos</t>
+          <t>Fernanda Lima</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ritadec6@gmail.com</t>
+          <t>fernanda.lima@example.com</t>
         </is>
       </c>
       <c r="C2">
-        <v>11940420547</v>
+        <v>11965432187</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>@srta.rta</t>
+          <t>@fernandalima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaaaaaa</t>
+          <t>Gostaria de agendar uma avaliação para preenchimento facial.</t>
         </is>
       </c>
       <c r="F2">
-        <v>986051867</v>
+        <v>1015946983</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rita de Cássia Costa Barbos</t>
+          <t>Fernanda Lima</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="K2" s="2">
-        <v>45540.92132721065</v>
+        <v>45592.83573517361</v>
       </c>
       <c r="L2" s="2">
-        <v>45540.92133135417</v>
+        <v>45592.83573858796</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -517,33 +517,33 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ryan Rossatto</t>
+          <t>Carlos Mendes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ryan123@gmail.com</t>
+          <t>carlos.mendes@example.com</t>
         </is>
       </c>
       <c r="C3">
-        <v>1194548792</v>
+        <v>11987651234</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>@ryan123</t>
+          <t>@carlosmendes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ryannnn</t>
+          <t>Quero saber mais sobre o procedimento de botox e valores.</t>
         </is>
       </c>
       <c r="F3">
-        <v>986749001</v>
+        <v>1015947051</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ryan Rossatto</t>
+          <t>Carlos Mendes</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="K3" s="2">
-        <v>45541.90462085648</v>
+        <v>45592.83615290509</v>
       </c>
       <c r="L3" s="2">
-        <v>45541.90462490741</v>
+        <v>45592.83615527778</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -569,33 +569,33 @@
     <row r="4" ht="18" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ryana Rosana</t>
+          <t>Patricia Figueiredo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ryana.Rosana@gmail.com</t>
+          <t>patricia.figueiredo@example.com</t>
         </is>
       </c>
       <c r="C4">
-        <v>11986532659</v>
+        <v>11933221144</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>@ryro</t>
+          <t>@patriciafigueiredo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ryrohh</t>
+          <t>Como agendo uma sessão para clareamento de manchas?</t>
         </is>
       </c>
       <c r="F4">
-        <v>986749669</v>
+        <v>1015947261</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ryana Rosana</t>
+          <t>Patricia Figueiredo</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -609,272 +609,12 @@
         </is>
       </c>
       <c r="K4" s="2">
-        <v>45541.90536991898</v>
+        <v>45592.83692556713</v>
       </c>
       <c r="L4" s="2">
-        <v>45541.90537332176</v>
+        <v>45592.83692853009</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ryana Rosanna</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ryyana.Rosana@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>11986592659</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>@ryyro</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ryrojmhh</t>
-        </is>
-      </c>
-      <c r="F5">
-        <v>986751401</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Ryana Rosanna</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Pipebot</t>
-        </is>
-      </c>
-      <c r="K5" s="2">
-        <v>45541.90714641204</v>
-      </c>
-      <c r="L5" s="2">
-        <v>45541.90714979167</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ana Mariana Vianna </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aninhahhh.Viannna@gmail.com</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>11986524973</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>@anna.marianna.vianna.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>annha</t>
-        </is>
-      </c>
-      <c r="F6">
-        <v>986757482</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ana Mariana Vianna </t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Pipebot</t>
-        </is>
-      </c>
-      <c r="K6" s="2">
-        <v>45541.91229155092</v>
-      </c>
-      <c r="L6" s="2">
-        <v>45541.91229576389</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ryan Rossatto</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ryanrossatto@gmail.com</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>11999999999</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>@Ryan.Rossatto</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Um dive</t>
-        </is>
-      </c>
-      <c r="F7">
-        <v>987183982</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Ryan Rossatto</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Pipebot</t>
-        </is>
-      </c>
-      <c r="K7" s="2">
-        <v>45542.82221997685</v>
-      </c>
-      <c r="L7" s="2">
-        <v>45542.82222417824</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Rita de Cássia Costa Barbosa</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rita.barbosa@sptech.school</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>11940420547</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>@srta.rta</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Quero agendar, mas preciso saber dos valores</t>
-        </is>
-      </c>
-      <c r="F8">
-        <v>987489453</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Rita de Cássia Costa Barbosa</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Pipebot</t>
-        </is>
-      </c>
-      <c r="K8" s="2">
-        <v>45543.65556726852</v>
-      </c>
-      <c r="L8" s="2">
-        <v>45543.65557180556</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Rita de Cássia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rita.barbosa@sptech.school</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>11940420547</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>@srta.rta</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Gostei e quero agendar mas não sei entrar</t>
-        </is>
-      </c>
-      <c r="F9">
-        <v>1014534939</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Rita de Cássia</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Pipebot</t>
-        </is>
-      </c>
-      <c r="K9" s="2">
-        <v>45589.56881056713</v>
-      </c>
-      <c r="L9" s="2">
-        <v>45589.56881475695</v>
-      </c>
-      <c r="N9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/python/dados.xlsx
+++ b/python/dados.xlsx
@@ -1,24 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritad\Desktop\Faculdade\KRONOS\projeto-teste\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD38613-9865-4F4E-AF20-06B9EA6DE537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Criador</t>
+  </si>
+  <si>
+    <t>Finalizado em</t>
+  </si>
+  <si>
+    <t>Criado em</t>
+  </si>
+  <si>
+    <t>Atualizado em</t>
+  </si>
+  <si>
+    <t>Expirado em</t>
+  </si>
+  <si>
+    <t>Vencido</t>
+  </si>
+  <si>
+    <t>Gostaria de agendar uma avaliação para preenchimento facial.</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Pipebot</t>
+  </si>
+  <si>
+    <t>Quero saber mais sobre o procedimento de botox e valores.</t>
+  </si>
+  <si>
+    <t>Como agendo uma sessão para clareamento de manchas?</t>
+  </si>
+  <si>
+    <t>Maria Lima</t>
+  </si>
+  <si>
+    <t>Rafael Mendes</t>
+  </si>
+  <si>
+    <t>Claudia Figueiredo</t>
+  </si>
+  <si>
+    <t>maria.lima@gmail.com</t>
+  </si>
+  <si>
+    <t>rafael.mendes@gmail.com</t>
+  </si>
+  <si>
+    <t>claudia.figueiredo@gmail.com</t>
+  </si>
+  <si>
+    <t>@mlima</t>
+  </si>
+  <si>
+    <t>@Rafaelmendes</t>
+  </si>
+  <si>
+    <t>@claudiafigueiredo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]yyyy-mm-dd hh:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]yyyy\-mm\-dd\ hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27,6 +135,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -65,28 +187,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,7 +258,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -158,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -192,9 +327,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -367,258 +503,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="8" width="13.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.296875" customWidth="1"/>
+    <col min="10" max="13" width="20.69921875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mensagem</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Título</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Criador</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Finalizado em</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Criado em</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Atualizado em</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Expirado em</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Vencido</t>
-        </is>
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Fernanda Lima</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>fernanda.lima@example.com</t>
-        </is>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C2">
         <v>11965432187</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>@fernandalima</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Gostaria de agendar uma avaliação para preenchimento facial.</t>
-        </is>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2">
         <v>1015946983</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Fernanda Lima</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Pipebot</t>
-        </is>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
       <c r="K2" s="2">
-        <v>45592.83573517361</v>
+        <v>45592.835735173612</v>
       </c>
       <c r="L2" s="2">
-        <v>45592.83573858796</v>
+        <v>45592.835738587957</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Carlos Mendes</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>carlos.mendes@example.com</t>
-        </is>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
         <v>11987651234</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>@carlosmendes</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Quero saber mais sobre o procedimento de botox e valores.</t>
-        </is>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3">
         <v>1015947051</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Carlos Mendes</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Pipebot</t>
-        </is>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
       <c r="K3" s="2">
-        <v>45592.83615290509</v>
+        <v>45592.836152905089</v>
       </c>
       <c r="L3" s="2">
-        <v>45592.83615527778</v>
+        <v>45592.836155277779</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Patricia Figueiredo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>patricia.figueiredo@example.com</t>
-        </is>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C4">
         <v>11933221144</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>@patriciafigueiredo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Como agendo uma sessão para clareamento de manchas?</t>
-        </is>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
       <c r="F4">
         <v>1015947261</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Patricia Figueiredo</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Pipebot</t>
-        </is>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="2">
-        <v>45592.83692556713</v>
+        <v>45592.836925567128</v>
       </c>
       <c r="L4" s="2">
-        <v>45592.83692853009</v>
+        <v>45592.836928530087</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="patricia.figueiredo@gmail.com" xr:uid="{179EE6BE-84C5-4A8A-B7A7-B7BC61DC10D9}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{1A9A8CCB-C74D-413E-9AFF-50195542AF01}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{9D2F0295-1724-480C-9FC3-F9551F3528A7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>